--- a/biology/Botanique/Forêt_d'Exception/Forêt_d'Exception.xlsx
+++ b/biology/Botanique/Forêt_d'Exception/Forêt_d'Exception.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Exception</t>
+          <t>Forêt_d'Exception</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,43 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêt d'Exception est un label français créé par l'Office national des forêts en 2008, qui distingue des politiques optimales de gestion et de valorisation du patrimoine forestier public national. Il ne s'agit pas d'un label de protection réglementaire[1], mais d'une marque déposée à l'Institut national de la propriété industrielle en 2011[2].
-En 2017, 17 forêts se sont engagées dans cette démarche qualitative[1] (13 labellisations et 4 candidatures en cours), qui consacre un souci de concilier développement économique local, valorisation du patrimoine, recherche scientifique et protection de la biodiversité. La liste des forêts retenues est volontairement représentative de la diversité des milieux naturels français.
-Les valeurs et principes du label sont consignés dans une charte nationale[3]. Le programme est piloté par un Comité national d'orientation, composé de représentants des ministères de tutelle de l'ONF (Ministère de l'Agriculture, de l'Agroalimentaire et de la Forêt et Ministère de l'Écologie, du Développement durable et de l'Énergie), de représentants de l'ONF et d'experts interdisciplinaires[4]. Une forêt envisageant de s'engager dans la démarche de certification doit se doter d'un comité de pilotage régional[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêt d'Exception est un label français créé par l'Office national des forêts en 2008, qui distingue des politiques optimales de gestion et de valorisation du patrimoine forestier public national. Il ne s'agit pas d'un label de protection réglementaire, mais d'une marque déposée à l'Institut national de la propriété industrielle en 2011.
+En 2017, 17 forêts se sont engagées dans cette démarche qualitative (13 labellisations et 4 candidatures en cours), qui consacre un souci de concilier développement économique local, valorisation du patrimoine, recherche scientifique et protection de la biodiversité. La liste des forêts retenues est volontairement représentative de la diversité des milieux naturels français.
+Les valeurs et principes du label sont consignés dans une charte nationale. Le programme est piloté par un Comité national d'orientation, composé de représentants des ministères de tutelle de l'ONF (Ministère de l'Agriculture, de l'Agroalimentaire et de la Forêt et Ministère de l'Écologie, du Développement durable et de l'Énergie), de représentants de l'ONF et d'experts interdisciplinaires. Une forêt envisageant de s'engager dans la démarche de certification doit se doter d'un comité de pilotage régional.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_d%27Exception</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_d%27Exception</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Liste des forêts engagées</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Forêts labellisées
-Forêts en cours de labellisation</t>
         </is>
       </c>
     </row>
